--- a/testreport/2 Ambivalence/bi_intcat_sigtest/x2_Ambivalence_How_many_years_of_experience_do_you_have_in_BY_x1_sex.xlsx
+++ b/testreport/2 Ambivalence/bi_intcat_sigtest/x2_Ambivalence_How_many_years_of_experience_do_you_have_in_BY_x1_sex.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,20 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>by_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>stat</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
@@ -390,19 +395,24 @@
           <t>Company A</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>x1_sex</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>100</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>18.8</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
       </c>
       <c r="E2">
-        <v>0.003</v>
+        <v>-1.6</v>
+      </c>
+      <c r="F2">
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -411,19 +421,24 @@
           <t>Company B</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>x1_sex</t>
+        </is>
+      </c>
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>20.2</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
       </c>
       <c r="E3">
-        <v>0.003</v>
+        <v>-1.3</v>
+      </c>
+      <c r="F3">
+        <v>0.994</v>
       </c>
     </row>
   </sheetData>
